--- a/histology/v2.1.0/histology-v2.1.0.xlsx
+++ b/histology/v2.1.0/histology-v2.1.0.xlsx
@@ -37,11 +37,6 @@
   <commentList>
     <comment ref="A1" authorId="1">
       <text>
-        <t/>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="1">
-      <text>
         <t>(Required) HuBMAP ID (e.g., HBM765.TRHD.452) of the sample (i.e., block, section
 or suspension) used to perform this assay. For example, for a RNAseq assay, the
 parent would be the suspension, whereas this would be the HuBMAP ID of a section
@@ -49,7 +44,7 @@
 then this should be a comma separated list.</t>
       </text>
     </comment>
-    <comment ref="C1" authorId="1">
+    <comment ref="B1" authorId="1">
       <text>
         <t>An internal field labs can use it to add whatever ID(s) they want or need for
 dataset validation and tracking. This could be a single ID (e.g.,
@@ -59,32 +54,32 @@
 provider are also used by another.</t>
       </text>
     </comment>
+    <comment ref="C1" authorId="1">
+      <text>
+        <t>DOI for the protocols.io page that describes the assay or sample procurment and
+preparation. For example for an imaging assay, the protocol might include
+staining of a section through the creation of an OME-TIFF file. In this case the
+protocol would include any image processing steps required to create the
+OME-TIFF file.</t>
+      </text>
+    </comment>
     <comment ref="D1" authorId="1">
       <text>
-        <t>(Required) DOI for the protocols.io page that describes the assay or sample
-procurement and preparation. For example for an imaging assay, the protocol
-might include staining of a section through the creation of an OME-TIFF file. In
-this case the protocol would include any image processing steps required to
-create the OME-TIFF file.</t>
+        <t>(Required) The specific type of dataset being produced.</t>
       </text>
     </comment>
     <comment ref="E1" authorId="1">
       <text>
-        <t>(Required) The specific type of dataset being produced.</t>
+        <t>(Required) Analytes are the target molecules being measured with the assay.</t>
       </text>
     </comment>
     <comment ref="F1" authorId="1">
-      <text>
-        <t>(Required) Analytes are the target molecules being measured with the assay.</t>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="1">
       <text>
         <t>(Required) Specifies whether or not a specific molecule(s) is/are targeted for
 detection/measurement by the assay. The CODEX analyte is protein.</t>
       </text>
     </comment>
-    <comment ref="H1" authorId="1">
+    <comment ref="G1" authorId="1">
       <text>
         <t>(Required) An acquisition instrument is the device that contains the signal
 detection hardware and signal processing software. Assays generate signals such
@@ -92,7 +87,7 @@
 mass.</t>
       </text>
     </comment>
-    <comment ref="I1" authorId="1">
+    <comment ref="H1" authorId="1">
       <text>
         <t>(Required) Manufacturers of an acquisition instrument may offer various versions
 (models) of that instrument with different features or sensitivities.
@@ -100,36 +95,36 @@
 interpretation of the data.</t>
       </text>
     </comment>
-    <comment ref="J1" authorId="1">
+    <comment ref="I1" authorId="1">
       <text>
         <t>(Required) How long was the source material (parent) stored, prior to this
 sample being processed.</t>
       </text>
     </comment>
-    <comment ref="K1" authorId="1">
+    <comment ref="J1" authorId="1">
       <text>
         <t>(Required) The time duration unit of measurement</t>
       </text>
     </comment>
-    <comment ref="L1" authorId="1">
+    <comment ref="K1" authorId="1">
       <text>
         <t>The amount of time since the acqusition instrument was last serviced by the
 vendor. This provides a metric for assessing drift in data capture.</t>
       </text>
     </comment>
-    <comment ref="M1" authorId="1">
+    <comment ref="L1" authorId="1">
       <text>
         <t>The time unit of measurement</t>
       </text>
     </comment>
-    <comment ref="N1" authorId="1">
+    <comment ref="M1" authorId="1">
       <text>
         <t>(Required) The path to the file with the ORCID IDs for all contributors of this
 dataset (e.g., "extras/contributors.tsv" or "./contributors.tsv"). This is an
 internal metadata field that is just used for ingest.</t>
       </text>
     </comment>
-    <comment ref="O1" authorId="1">
+    <comment ref="N1" authorId="1">
       <text>
         <t>(Required) The top level directory containing the raw and/or processed data. For
 a single dataset upload this might be "." where as for a data upload containing
@@ -141,21 +136,21 @@
 used for ingest.</t>
       </text>
     </comment>
-    <comment ref="P1" authorId="1">
+    <comment ref="O1" authorId="1">
       <text>
         <t>Depending on if the acquisition instrument was a microscope, slide scanner, etc.
 will indicate whether or not any level of preprocessing was required to assemble
 the image (e.g., fusing image tiles) .</t>
       </text>
     </comment>
-    <comment ref="Q1" authorId="1">
+    <comment ref="P1" authorId="1">
       <text>
         <t>(Required) The name of the chemical stains (dyes) applied to histology samples
 to highlight important features of the tissue as well as to enhance the tissue
 contrast.</t>
       </text>
     </comment>
-    <comment ref="R1" authorId="1">
+    <comment ref="Q1" authorId="1">
       <text>
         <t>There are typically three types of stains: progressive, modified progressive,
 and regressive. Progressive staining occurs when the hematoxylin is added to the
@@ -163,31 +158,31 @@
 regressive and modified progressive staining, a differentiator is used.</t>
       </text>
     </comment>
-    <comment ref="S1" authorId="1">
+    <comment ref="R1" authorId="1">
       <text>
         <t>(Required) Are the slides stained using a linear batch method or individually?</t>
       </text>
     </comment>
-    <comment ref="T1" authorId="1">
+    <comment ref="S1" authorId="1">
       <text>
         <t>(Required) Is the slide staining automated with an instrument?</t>
       </text>
     </comment>
-    <comment ref="U1" authorId="1">
+    <comment ref="T1" authorId="1">
       <text>
         <t>The manufacturer of the instrument used to prepare (staining/processing) the
 sample for the assay. If an automatic slide staining method was indicated this
 field should list the manufacturer of the instrument.</t>
       </text>
     </comment>
-    <comment ref="V1" authorId="1">
+    <comment ref="U1" authorId="1">
       <text>
         <t>Manufacturers of a staining system instrument may offer various versions
 (models) of that instrument with different features. Differences in features or
 sensitivities may be relevant to processing or interpretation of the data.</t>
       </text>
     </comment>
-    <comment ref="W1" authorId="1">
+    <comment ref="V1" authorId="1">
       <text>
         <t>A unique ID denoting the slide used. This allows users the ability to determine
 which tissue sections were processed together on the same slide. It is
@@ -195,36 +190,36 @@
 values overlapping across centers.</t>
       </text>
     </comment>
-    <comment ref="X1" authorId="1">
+    <comment ref="W1" authorId="1">
       <text>
         <t>This is how the tiles are configured for stitching.</t>
       </text>
     </comment>
-    <comment ref="Y1" authorId="1">
+    <comment ref="X1" authorId="1">
       <text>
         <t>This is the direction of imaging, which is required for stitching.</t>
       </text>
     </comment>
-    <comment ref="Z1" authorId="1">
+    <comment ref="Y1" authorId="1">
       <text>
         <t>This is how many columns used in stitching. This is sometimes referred to as the
 grid size x.</t>
       </text>
     </comment>
-    <comment ref="AA1" authorId="1">
+    <comment ref="Z1" authorId="1">
       <text>
         <t>This is the total number of raw (tiled) images captured, that are to be stitched
 together.</t>
       </text>
     </comment>
-    <comment ref="AB1" authorId="1">
+    <comment ref="AA1" authorId="1">
       <text>
         <t>The amount of overlap between tiled images. This is the set point, where as
 during image acquisition there will be slight variations due to stage
 registration.</t>
       </text>
     </comment>
-    <comment ref="AC1" authorId="1">
+    <comment ref="AB1" authorId="1">
       <text>
         <t>(Required) The string that serves as the definitive identifier for the metadata
 schema version and is readily interpretable by computers for data validation and
@@ -236,17 +231,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="282">
-  <si>
-    <t>header_info</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="286">
   <si>
     <t>parent_sample_id</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>lab_id</t>
   </si>
   <si>
@@ -961,6 +950,12 @@
     <t>preparation_instrument_model</t>
   </si>
   <si>
+    <t>Chromium X</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_999998</t>
+  </si>
+  <si>
     <t>Sublimator</t>
   </si>
   <si>
@@ -979,6 +974,18 @@
     <t>https://identifiers.org/RRID:SCR_023731</t>
   </si>
   <si>
+    <t>Chromium Controller</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_019326</t>
+  </si>
+  <si>
+    <t>Chromium iX</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_999999</t>
+  </si>
+  <si>
     <t>M5 Sprayer</t>
   </si>
   <si>
@@ -1075,7 +1082,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-09-23T12:05:42-07:00</t>
+    <t>2023-10-03T09:54:49-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1134,12 +1141,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyAlignment="true" applyFill="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1178,41 +1184,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="2" width="11.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="2" max="2" style="3" width="16.6875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="4" width="6.33984375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="5" width="23.45703125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="6" width="12.28515625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="7" width="12.66796875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="8" width="10.8984375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="9" width="28.46484375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" style="10" width="27.87109375" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" style="11" width="28.5625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" style="12" width="27.40234375" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" style="13" width="47.64453125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" style="14" width="46.48828125" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" style="15" width="16.90625" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" style="16" width="9.81640625" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" style="17" width="30.79296875" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" style="18" width="11.14453125" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" style="19" width="15.02734375" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" style="20" width="21.73828125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" style="21" width="21.0" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" style="22" width="29.08203125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" style="23" width="28.48828125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" style="24" width="7.8125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" style="25" width="16.65625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" style="26" width="13.859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" style="27" width="19.734375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" style="28" width="17.2421875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" style="29" width="30.83203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" style="30" width="19.61328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="2" width="16.6875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="3" width="6.33984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="4" width="23.45703125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="5" width="12.28515625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="6" width="12.66796875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="7" width="10.8984375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="8" width="28.46484375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="9" width="27.87109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" style="10" width="28.5625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" style="11" width="27.40234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" style="12" width="47.64453125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" style="13" width="46.48828125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" style="14" width="16.90625" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" style="15" width="9.81640625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" style="16" width="30.79296875" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" style="17" width="11.14453125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" style="18" width="15.02734375" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" style="19" width="21.73828125" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" style="20" width="21.0" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" style="21" width="29.08203125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" style="22" width="28.48828125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" style="23" width="7.8125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" style="24" width="16.65625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" style="25" width="13.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" style="26" width="19.734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" style="27" width="17.2421875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" style="28" width="30.83203125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" style="29" width="19.61328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1223,165 +1228,159 @@
         <v>1</v>
       </c>
       <c r="C1" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="1">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="1">
-        <v>4</v>
-      </c>
       <c r="E1" t="s" s="1">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="L1" t="s" s="1">
+        <v>207</v>
+      </c>
+      <c r="M1" t="s" s="1">
         <v>208</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="N1" t="s" s="1">
         <v>209</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="O1" t="s" s="1">
         <v>210</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="P1" t="s" s="1">
         <v>211</v>
       </c>
-      <c r="P1" t="s" s="1">
-        <v>212</v>
-      </c>
       <c r="Q1" t="s" s="1">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="S1" t="s" s="1">
+        <v>230</v>
+      </c>
+      <c r="T1" t="s" s="1">
         <v>231</v>
       </c>
-      <c r="T1" t="s" s="1">
-        <v>232</v>
-      </c>
       <c r="U1" t="s" s="1">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>272</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2">
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>274</v>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="21">
-    <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'dataset_type'!$A$1:$A$36</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$10</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$14</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'acquisition_instrument_model'!$A$1:$A$32</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="J2:J1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
-    <dataValidation type="list" sqref="K2:K1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="list" sqref="J2:J1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'source_storage_duration_unit'!$A$1:$A$5</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="K2:K1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
-    <dataValidation type="list" sqref="M2:M1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="list" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'time_since_acquisition_instrument_calibration_unit'!$A$1:$A$3</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="list" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_image_preprocessing_required'!$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="Q2:Q1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="list" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'stain_name'!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="R2:R1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="list" sqref="Q2:Q1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'stain_technique'!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="S2:S1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="list" sqref="R2:R1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_batch_staining_done'!$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="T2:T1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="list" sqref="S2:S1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_staining_automated'!$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="U2:U1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="list" sqref="T2:T1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_instrument_vendor'!$A$1:$A$5</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="V2:V1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_model'!$A$1:$A$9</formula1>
+    <dataValidation type="list" sqref="U2:U1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+      <formula1>'preparation_instrument_model'!$A$1:$A$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="W2:W1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+      <formula1>'tile_configuration'!$A$1:$A$5</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="X2:X1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'tile_configuration'!$A$1:$A$5</formula1>
+      <formula1>'scan_direction'!$A$1:$A$5</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="Y2:Y1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'scan_direction'!$A$1:$A$5</formula1>
+    <dataValidation type="whole" operator="greaterThanOrEqual" sqref="Y2:Y1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 1" showErrorMessage="true">
+      <formula1>1</formula1>
+      <formula2/>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" sqref="Z2:Z1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 1" showErrorMessage="true">
       <formula1>1</formula1>
       <formula2/>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" sqref="AA2:AA1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 1" showErrorMessage="true">
-      <formula1>1</formula1>
-      <formula2/>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="AB2:AB1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="AA2:AA1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
@@ -1402,34 +1401,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -1447,34 +1446,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -1492,12 +1491,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1515,12 +1514,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1538,42 +1537,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -1583,7 +1582,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1591,74 +1590,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="B1" t="s">
-        <v>137</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>226</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>249</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>251</v>
       </c>
       <c r="B9" t="s">
-        <v>181</v>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1676,42 +1699,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B4" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B5" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -1729,42 +1752,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B3" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B5" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -1788,30 +1811,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -1829,290 +1852,290 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2130,82 +2153,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2223,12 +2246,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2246,114 +2269,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2371,258 +2394,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B29" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B32" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2640,42 +2663,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2693,26 +2716,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2730,12 +2753,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/histology/v2.1.0/histology-v2.1.0.xlsx
+++ b/histology/v2.1.0/histology-v2.1.0.xlsx
@@ -37,11 +37,11 @@
   <commentList>
     <comment ref="A1" authorId="1">
       <text>
-        <t>(Required) HuBMAP ID (e.g., HBM765.TRHD.452) of the sample (i.e., block, section
-or suspension) used to perform this assay. For example, for a RNAseq assay, the
-parent would be the suspension, whereas this would be the HuBMAP ID of a section
-for one of the imaging assays. If an assay comes from multiple parent samples
-then this should be a comma separated list.</t>
+        <t>(Required) HuBMAP ID of the sample (i.e., block, section or suspension) used to
+perform this assay. For example, for a RNAseq assay, the parent would be the
+suspension, whereas this would be the HuBMAP ID of a section for one of the
+imaging assays. If an assay comes from multiple parent samples then this should
+be a comma separated list. Example: HBM765.TRHD.452</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1">
@@ -56,11 +56,12 @@
     </comment>
     <comment ref="C1" authorId="1">
       <text>
-        <t>DOI for the protocols.io page that describes the assay or sample procurment and
-preparation. For example for an imaging assay, the protocol might include
-staining of a section through the creation of an OME-TIFF file. In this case the
-protocol would include any image processing steps required to create the
-OME-TIFF file.</t>
+        <t>(Required) DOI for the protocols.io page that describes the assay or sample
+procurment and preparation. For example for an imaging assay, the protocol might
+include staining of a section through the creation of an OME-TIFF file. In this
+case the protocol would include any image processing steps required to create
+the OME-TIFF file. Example:
+https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
       </text>
     </comment>
     <comment ref="D1" authorId="1">
@@ -76,7 +77,8 @@
     <comment ref="F1" authorId="1">
       <text>
         <t>(Required) Specifies whether or not a specific molecule(s) is/are targeted for
-detection/measurement by the assay. The CODEX analyte is protein.</t>
+detection/measurement by the assay ("Yes" or "No"). The CODEX analyte is
+protein.</t>
       </text>
     </comment>
     <comment ref="G1" authorId="1">
@@ -120,7 +122,7 @@
     <comment ref="M1" authorId="1">
       <text>
         <t>(Required) The path to the file with the ORCID IDs for all contributors of this
-dataset (e.g., "extras/contributors.tsv" or "./contributors.tsv"). This is an
+dataset (e.g., "./extras/contributors.tsv" or "./contributors.tsv"). This is an
 internal metadata field that is just used for ingest.</t>
       </text>
     </comment>
@@ -130,8 +132,8 @@
 a single dataset upload this might be "." where as for a data upload containing
 multiple datasets, this would be the directory name for the respective dataset.
 For instance, if the data is within a directory called "TEST001-RK" use syntax
-"/TEST001-RK/" for this field. If there are multiple directory levels, use the
-format "/TEST001-RK/Run1/Pass2" in which "Pass2" is the subdirectory where the
+"./TEST001-RK" for this field. If there are multiple directory levels, use the
+format "./TEST001-RK/Run1/Pass2" in which "Pass2" is the subdirectory where the
 single dataset's data is stored. This is an internal metadata field that is just
 used for ingest.</t>
       </text>
@@ -231,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="288">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -269,6 +271,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
   </si>
   <si>
+    <t>scATACseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000247</t>
+  </si>
+  <si>
     <t>Auto-fluorescence</t>
   </si>
   <si>
@@ -281,30 +289,30 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
   </si>
   <si>
-    <t>snATAC-seq</t>
+    <t>scRNAseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000248</t>
+  </si>
+  <si>
+    <t>Xenium</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
+  </si>
+  <si>
+    <t>snATACseq</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000183</t>
   </si>
   <si>
-    <t>Xenium</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
-  </si>
-  <si>
     <t>Molecular Cartography</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
   </si>
   <si>
-    <t>scRNA-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000248</t>
-  </si>
-  <si>
     <t>CosMx</t>
   </si>
   <si>
@@ -347,114 +355,108 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000160</t>
   </si>
   <si>
-    <t>snRNA-seq</t>
+    <t>CyCIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
+  </si>
+  <si>
+    <t>Light Sheet</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
+  </si>
+  <si>
+    <t>NanoDESI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000203</t>
+  </si>
+  <si>
+    <t>GeoMx</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000216</t>
+  </si>
+  <si>
+    <t>RNAseq (bulk)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000212</t>
+  </si>
+  <si>
+    <t>MALDI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
+  </si>
+  <si>
+    <t>RNAseq (GeoMx)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000214</t>
+  </si>
+  <si>
+    <t>Histology</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000197</t>
+  </si>
+  <si>
+    <t>Enhanced Stimulated Raman Spectroscopy (SRS)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
+  </si>
+  <si>
+    <t>ATACseq (bulk)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000210</t>
+  </si>
+  <si>
+    <t>MERFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
+  </si>
+  <si>
+    <t>LC-MS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000194</t>
+  </si>
+  <si>
+    <t>10X Multiome</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
+  </si>
+  <si>
+    <t>PhenoCycler</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
+  </si>
+  <si>
+    <t>Second Harmonic Generation (SHG)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
+  </si>
+  <si>
+    <t>Thick section Multiphoton MxIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
+  </si>
+  <si>
+    <t>snRNAseq</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000184</t>
   </si>
   <si>
-    <t>CyCIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
-  </si>
-  <si>
-    <t>Light Sheet</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
-  </si>
-  <si>
-    <t>NanoDESI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000203</t>
-  </si>
-  <si>
-    <t>GeoMx</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000216</t>
-  </si>
-  <si>
-    <t>RNAseq (bulk)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000212</t>
-  </si>
-  <si>
-    <t>MALDI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
-  </si>
-  <si>
-    <t>RNAseq (GeoMx)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000214</t>
-  </si>
-  <si>
-    <t>Histology</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000197</t>
-  </si>
-  <si>
-    <t>scATAC-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000247</t>
-  </si>
-  <si>
-    <t>Enhanced Stimulated Raman Spectroscopy (SRS)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
-  </si>
-  <si>
-    <t>ATACseq (bulk)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000210</t>
-  </si>
-  <si>
-    <t>MERFISH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
-  </si>
-  <si>
-    <t>LC-MS</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000194</t>
-  </si>
-  <si>
-    <t>10X Multiome</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
-  </si>
-  <si>
-    <t>PhenoCycler</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
-  </si>
-  <si>
-    <t>Second Harmonic Generation (SHG)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
-  </si>
-  <si>
-    <t>Thick section Multiphoton MxIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
-  </si>
-  <si>
     <t>Visium</t>
   </si>
   <si>
@@ -470,6 +472,12 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13201</t>
   </si>
   <si>
+    <t>Nucleic acid and protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
+  </si>
+  <si>
     <t>Fluorochrome</t>
   </si>
   <si>
@@ -641,18 +649,24 @@
     <t>https://identifiers.org/RRID:SCR_023760</t>
   </si>
   <si>
-    <t>Zeiss Lightsheet 7</t>
+    <t>Axio Observer 7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023694</t>
+  </si>
+  <si>
+    <t>IN Cell Analyzer 2200</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023616</t>
+  </si>
+  <si>
+    <t>Lightsheet 7</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024448</t>
   </si>
   <si>
-    <t>IN Cell Analyzer 2200</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023616</t>
-  </si>
-  <si>
     <t>Orbitrap Fusion Lumos Tribrid</t>
   </si>
   <si>
@@ -671,6 +685,18 @@
     <t>https://identifiers.org/RRID:SCR_023615</t>
   </si>
   <si>
+    <t>Axio Observer 5</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023692</t>
+  </si>
+  <si>
+    <t>Axio Observer 3</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023693</t>
+  </si>
+  <si>
     <t>HiSeq 2500</t>
   </si>
   <si>
@@ -713,36 +739,18 @@
     <t>https://identifiers.org/RRID:SCR_023610</t>
   </si>
   <si>
-    <t>Zeiss Axio Observer 5</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023692</t>
-  </si>
-  <si>
     <t>HiSeq 4000</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
-    <t>Zeiss Axio Observer 7</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023694</t>
-  </si>
-  <si>
     <t>QTRAP 5500</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_020517</t>
   </si>
   <si>
-    <t>Zeiss Axio Observer 3</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023693</t>
-  </si>
-  <si>
     <t>BZ-X800</t>
   </si>
   <si>
@@ -953,7 +961,7 @@
     <t>Chromium X</t>
   </si>
   <si>
-    <t>https://identifiers.org/RRID:SCR_999998</t>
+    <t>https://identifiers.org/RRID:SCR_024537</t>
   </si>
   <si>
     <t>Sublimator</t>
@@ -983,7 +991,7 @@
     <t>Chromium iX</t>
   </si>
   <si>
-    <t>https://identifiers.org/RRID:SCR_999999</t>
+    <t>https://identifiers.org/RRID:SCR_024536</t>
   </si>
   <si>
     <t>M5 Sprayer</t>
@@ -1082,7 +1090,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-03T09:54:49-07:00</t>
+    <t>2023-10-06T19:19:45-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1237,73 +1245,73 @@
         <v>76</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2">
@@ -1311,7 +1319,7 @@
         <v>54</v>
       </c>
       <c r="AB2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1328,7 @@
       <formula1>'dataset_type'!$A$1:$A$36</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$10</formula1>
+      <formula1>'analyte_class'!$A$1:$A$11</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -1401,34 +1409,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -1446,34 +1454,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -1491,12 +1499,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1514,12 +1522,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1537,42 +1545,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -1590,98 +1598,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B6" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B9" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B10" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -1699,42 +1707,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B5" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -1752,42 +1760,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B3" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B5" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -1811,16 +1819,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2">
@@ -1828,13 +1836,13 @@
         <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -2145,7 +2153,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2229,6 +2237,14 @@
       </c>
       <c r="B10" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2246,12 +2262,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2269,114 +2285,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2394,258 +2410,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B24" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B29" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B30" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B31" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B32" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2663,42 +2679,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2716,26 +2732,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2753,12 +2769,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/histology/v2.1.0/histology-v2.1.0.xlsx
+++ b/histology/v2.1.0/histology-v2.1.0.xlsx
@@ -233,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="302">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -655,12 +655,24 @@
     <t>https://identifiers.org/RRID:SCR_023694</t>
   </si>
   <si>
+    <t>NovaSeq X</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024569</t>
+  </si>
+  <si>
     <t>IN Cell Analyzer 2200</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>NanoZoomer 2.0-HT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021658</t>
+  </si>
+  <si>
     <t>Lightsheet 7</t>
   </si>
   <si>
@@ -793,6 +805,18 @@
     <t>https://identifiers.org/RRID:SCR_023195</t>
   </si>
   <si>
+    <t>NovaSeq X Plus</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024568</t>
+  </si>
+  <si>
+    <t>NanoZoomer-SQ</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023763</t>
+  </si>
+  <si>
     <t>NextSeq 550</t>
   </si>
   <si>
@@ -937,16 +961,22 @@
     <t>preparation_instrument_vendor</t>
   </si>
   <si>
+    <t>HTX Technologies</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023734</t>
+  </si>
+  <si>
     <t>10x Genomics</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023672</t>
   </si>
   <si>
-    <t>HTX Technologies</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023734</t>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
   </si>
   <si>
     <t>SunChrom</t>
@@ -958,16 +988,34 @@
     <t>preparation_instrument_model</t>
   </si>
   <si>
+    <t>Sublimator</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023729</t>
+  </si>
+  <si>
+    <t>Chromium Controller</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_019326</t>
+  </si>
+  <si>
     <t>Chromium X</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024537</t>
   </si>
   <si>
-    <t>Sublimator</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023729</t>
+    <t>AutoStainer XL</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023957</t>
+  </si>
+  <si>
+    <t>Visium CytAssist</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024570</t>
   </si>
   <si>
     <t>SunCollect Sprayer</t>
@@ -982,12 +1030,6 @@
     <t>https://identifiers.org/RRID:SCR_023731</t>
   </si>
   <si>
-    <t>Chromium Controller</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_019326</t>
-  </si>
-  <si>
     <t>Chromium iX</t>
   </si>
   <si>
@@ -1090,7 +1132,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-06T19:19:45-07:00</t>
+    <t>2023-10-16T20:59:56-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1254,64 +1296,64 @@
         <v>131</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>279</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2">
@@ -1319,7 +1361,7 @@
         <v>54</v>
       </c>
       <c r="AB2" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -1337,7 +1379,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$14</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$32</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$36</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1369,10 +1411,10 @@
       <formula1>'is_staining_automated'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="T2:T1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_vendor'!$A$1:$A$5</formula1>
+      <formula1>'preparation_instrument_vendor'!$A$1:$A$7</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="U2:U1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_model'!$A$1:$A$12</formula1>
+      <formula1>'preparation_instrument_model'!$A$1:$A$14</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="W2:W1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'tile_configuration'!$A$1:$A$5</formula1>
@@ -1409,34 +1451,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B1" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B2" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B4" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -1454,34 +1496,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B2" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -1537,7 +1579,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1545,42 +1587,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s">
-        <v>235</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>233</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B4" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>238</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>239</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -1590,7 +1648,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1598,98 +1656,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>241</v>
+        <v>136</v>
       </c>
       <c r="B1" t="s">
-        <v>242</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>233</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="B4" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>245</v>
+        <v>182</v>
       </c>
       <c r="B5" t="s">
-        <v>246</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>247</v>
+        <v>184</v>
       </c>
       <c r="B6" t="s">
-        <v>248</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B8" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B9" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B10" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>263</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>180</v>
+        <v>265</v>
       </c>
       <c r="B12" t="s">
-        <v>181</v>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>267</v>
+      </c>
+      <c r="B13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>269</v>
+      </c>
+      <c r="B14" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -1707,42 +1781,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="B1" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="B2" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B4" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="B5" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -1760,42 +1834,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="B1" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B4" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="B5" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -1819,16 +1893,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="B1" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="C1" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="D1" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2">
@@ -1836,13 +1910,13 @@
         <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="C2" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="D2" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -2402,7 +2476,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2662,6 +2736,38 @@
       </c>
       <c r="B32" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>196</v>
+      </c>
+      <c r="B33" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>200</v>
+      </c>
+      <c r="B35" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>202</v>
+      </c>
+      <c r="B36" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2679,42 +2785,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2732,26 +2838,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/histology/v2.1.0/histology-v2.1.0.xlsx
+++ b/histology/v2.1.0/histology-v2.1.0.xlsx
@@ -1132,7 +1132,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-16T20:59:56-07:00</t>
+    <t>2023-10-18T11:59:19-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/histology/v2.1.0/histology-v2.1.0.xlsx
+++ b/histology/v2.1.0/histology-v2.1.0.xlsx
@@ -37,11 +37,12 @@
   <commentList>
     <comment ref="A1" authorId="1">
       <text>
-        <t>(Required) HuBMAP ID of the sample (i.e., block, section or suspension) used to
-perform this assay. For example, for a RNAseq assay, the parent would be the
-suspension, whereas this would be the HuBMAP ID of a section for one of the
-imaging assays. If an assay comes from multiple parent samples then this should
-be a comma separated list. Example: HBM765.TRHD.452</t>
+        <t>(Required) Unique HuBMAP or SenNet identifier of the sample (i.e., block,
+section or suspension) used to perform this assay. For example, for a RNAseq
+assay, the parent would be the suspension, whereas, for one of the imaging
+assays, the parent would be the tissue section. If an assay comes from multiple
+parent samples then this should be a comma separated list. Example:
+HBM386.ZGKG.235, HBM672.MKPK.442 or SNT232.UBHJ.322, SNT329.ALSK.102</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1">
@@ -265,6 +266,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000246</t>
   </si>
   <si>
+    <t>MIBI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
+  </si>
+  <si>
     <t>DESI</t>
   </si>
   <si>
@@ -325,12 +332,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000222</t>
   </si>
   <si>
-    <t>Multiplex Ion Beam Imaging</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
-  </si>
-  <si>
     <t>SIMS</t>
   </si>
   <si>
@@ -568,12 +569,6 @@
     <t>https://identifiers.org/RRID:SCR_023607</t>
   </si>
   <si>
-    <t>Bruker Daltonics</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023608</t>
-  </si>
-  <si>
     <t>Standard BioTools (Fluidigm)</t>
   </si>
   <si>
@@ -586,6 +581,12 @@
     <t>https://identifiers.org/RRID:SCR_023651</t>
   </si>
   <si>
+    <t>Bruker</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_017365</t>
+  </si>
+  <si>
     <t>Keyence</t>
   </si>
   <si>
@@ -961,6 +962,12 @@
     <t>preparation_instrument_vendor</t>
   </si>
   <si>
+    <t>In-House</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
+  </si>
+  <si>
     <t>HTX Technologies</t>
   </si>
   <si>
@@ -973,12 +980,6 @@
     <t>https://identifiers.org/RRID:SCR_023672</t>
   </si>
   <si>
-    <t>Custom</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
-  </si>
-  <si>
     <t>SunChrom</t>
   </si>
   <si>
@@ -1132,7 +1133,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-18T11:59:19-07:00</t>
+    <t>2023-10-27T18:08:03-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1587,26 +1588,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>242</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>234</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B3" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4">
@@ -1619,18 +1620,18 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>246</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>247</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7">

--- a/histology/v2.1.0/histology-v2.1.0.xlsx
+++ b/histology/v2.1.0/histology-v2.1.0.xlsx
@@ -234,7 +234,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="304">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -260,12 +260,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000264</t>
   </si>
   <si>
-    <t>nanoPOTS</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000246</t>
-  </si>
-  <si>
     <t>MIBI</t>
   </si>
   <si>
@@ -368,12 +362,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
   </si>
   <si>
-    <t>NanoDESI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000203</t>
-  </si>
-  <si>
     <t>GeoMx</t>
   </si>
   <si>
@@ -392,6 +380,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
+    <t>2D Imaging Mass Cytometry</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
+  </si>
+  <si>
     <t>RNAseq (GeoMx)</t>
   </si>
   <si>
@@ -638,6 +632,12 @@
     <t>https://identifiers.org/RRID:SCR_023611</t>
   </si>
   <si>
+    <t>STELLARIS 5</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024663</t>
+  </si>
+  <si>
     <t>BZ-X710</t>
   </si>
   <si>
@@ -692,6 +692,12 @@
     <t>https://identifiers.org/RRID:SCR_024449</t>
   </si>
   <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
+  </si>
+  <si>
     <t>MALDI timsTOF Flex Prototype</t>
   </si>
   <si>
@@ -1133,7 +1139,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-27T18:08:03-07:00</t>
+    <t>2023-11-02T15:44:51-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1285,90 +1291,90 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AB2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="21">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$36</formula1>
+      <formula1>'dataset_type'!$A$1:$A$35</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$11</formula1>
@@ -1380,7 +1386,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$14</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$36</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$38</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1452,34 +1458,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -1497,34 +1503,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -1542,12 +1548,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1565,12 +1571,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1588,58 +1594,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B5" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -1665,106 +1671,106 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B8" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B9" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B10" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B11" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B12" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B13" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B14" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -1782,42 +1788,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B5" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -1835,42 +1841,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B5" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -1894,30 +1900,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -1927,7 +1933,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2211,14 +2217,6 @@
       </c>
       <c r="B35" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2236,90 +2234,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2337,12 +2335,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2360,114 +2358,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2477,7 +2475,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2485,290 +2483,306 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B29" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B32" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B34" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B35" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
         <v>202</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>203</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>204</v>
+      </c>
+      <c r="B38" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2786,42 +2800,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2839,26 +2853,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2876,12 +2890,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/histology/v2.1.0/histology-v2.1.0.xlsx
+++ b/histology/v2.1.0/histology-v2.1.0.xlsx
@@ -1139,7 +1139,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-02T15:44:51-07:00</t>
+    <t>2023-11-07T20:05:11-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/histology/v2.1.0/histology-v2.1.0.xlsx
+++ b/histology/v2.1.0/histology-v2.1.0.xlsx
@@ -234,7 +234,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="300">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -266,18 +266,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
   </si>
   <si>
+    <t>Visium (no probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
+  </si>
+  <si>
     <t>DESI</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
   </si>
   <si>
-    <t>scATACseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000247</t>
-  </si>
-  <si>
     <t>Auto-fluorescence</t>
   </si>
   <si>
@@ -290,22 +290,16 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
   </si>
   <si>
-    <t>scRNAseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000248</t>
-  </si>
-  <si>
     <t>Xenium</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
   </si>
   <si>
-    <t>snATACseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000183</t>
+    <t>Visium (with probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
   </si>
   <si>
     <t>Molecular Cartography</t>
@@ -332,12 +326,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000202</t>
   </si>
   <si>
-    <t>RNAseq (Visium)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000188</t>
-  </si>
-  <si>
     <t>Cell DIVE</t>
   </si>
   <si>
@@ -350,6 +338,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000160</t>
   </si>
   <si>
+    <t>GeoMx (NGS)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000300</t>
+  </si>
+  <si>
     <t>CyCIF</t>
   </si>
   <si>
@@ -362,18 +356,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
   </si>
   <si>
-    <t>GeoMx</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000216</t>
-  </si>
-  <si>
-    <t>RNAseq (bulk)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000212</t>
-  </si>
-  <si>
     <t>MALDI</t>
   </si>
   <si>
@@ -386,10 +368,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
   </si>
   <si>
-    <t>RNAseq (GeoMx)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000214</t>
+    <t>ATACseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
   </si>
   <si>
     <t>Histology</t>
@@ -404,10 +386,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
   </si>
   <si>
-    <t>ATACseq (bulk)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000210</t>
+    <t>RNAseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
     <t>MERFISH</t>
@@ -422,12 +404,30 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000194</t>
   </si>
   <si>
+    <t>nanoSPLITS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000312</t>
+  </si>
+  <si>
     <t>10X Multiome</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
   </si>
   <si>
+    <t>GeoMx (nCounter)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000301</t>
+  </si>
+  <si>
+    <t>RNAseq (with probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000311</t>
+  </si>
+  <si>
     <t>PhenoCycler</t>
   </si>
   <si>
@@ -446,18 +446,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
   </si>
   <si>
-    <t>snRNAseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000184</t>
-  </si>
-  <si>
-    <t>Visium</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000187</t>
-  </si>
-  <si>
     <t>analyte_class</t>
   </si>
   <si>
@@ -1139,7 +1127,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-07T20:05:11-08:00</t>
+    <t>2023-11-15T17:13:24-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1291,90 +1279,90 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K1" t="s" s="1">
+        <v>214</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>215</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>216</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>217</v>
+      </c>
+      <c r="O1" t="s" s="1">
         <v>218</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="P1" t="s" s="1">
         <v>219</v>
       </c>
-      <c r="M1" t="s" s="1">
-        <v>220</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>221</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>222</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>223</v>
-      </c>
       <c r="Q1" t="s" s="1">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="AB2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="21">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$35</formula1>
+      <formula1>'dataset_type'!$A$1:$A$33</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$11</formula1>
@@ -1458,34 +1446,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -1503,34 +1491,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -1548,12 +1536,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1571,12 +1559,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1594,58 +1582,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -1663,114 +1651,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B8" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B9" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B10" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B11" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B12" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B13" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B14" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -1788,42 +1776,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -1841,42 +1829,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -1900,30 +1888,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1" t="s">
         <v>298</v>
-      </c>
-      <c r="C1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D1" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2" t="s">
         <v>299</v>
-      </c>
-      <c r="C2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D2" t="s">
-        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -1933,7 +1921,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2201,22 +2189,6 @@
       </c>
       <c r="B33" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2234,90 +2206,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2335,12 +2307,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2358,114 +2330,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2483,306 +2455,306 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B25" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B29" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B30" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B31" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B32" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B34" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B35" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B37" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B38" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2800,42 +2772,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2853,26 +2825,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -2890,12 +2862,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/histology/v2.1.0/histology-v2.1.0.xlsx
+++ b/histology/v2.1.0/histology-v2.1.0.xlsx
@@ -1127,7 +1127,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-15T17:13:24-08:00</t>
+    <t>2023-11-24T09:44:02-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
